--- a/matthew.fuller/results.xlsx
+++ b/matthew.fuller/results.xlsx
@@ -16,87 +16,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>NAMES</t>
   </si>
   <si>
-    <t xml:space="preserve">ÿþ Running tests in
+    <t>ÿþ Running tests in
  - Chrome 9204515159  Windows 10
  activity tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can open activity creation menu
+ - DEPRECATED can navigate to test from feed page
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> can open activity creation menu
-   1) - Error while restoring configuration after Role switch -
-      A native beforeunload dialog was invoked on page
-      httpssvvsdcloud-staginganarkcomfeed but no handler was set
-      for it Use the setNativeDialogHandler function to introduce a
-      handler function for native dialogs
+    <t xml:space="preserve"> can navigate to edit activity
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
       Browser Chrome 9204515159  Windows 10
-         24          tctxuser  mattUser
-         25          consoleerror(err)
-         26        
-         27 
-         28     await t
-        29         useRole(tctxuserrole)
-         30 )
-         31 
-         32 description open the activity creation menu from the home
-      page 
-         33 test(can open activity creation menu async t  
-         34     await feedPageopenCreateMenu()
+         175 áááá   checking if activity title exists
+         176   returns null
+         177 
+         178 async pressCreateBtn() 
+         179   await t
+        180     expect(thiscreateBtnexists)eql(true)
+         181     click(thiscreateBtn)
+         182     wait(2000)
+         183     expect(Selector(activityTitle)exists)
+         184     eql(true)
+         185   return null
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
          at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs2910)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
+         at __awaiter
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
+         at ActivityPagepressCreateBtn
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create an activity
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 9204515159  Windows 10
+         63 test(can create an activity async (t)  
+         64   await feedPageopenCreateMenu()
+         65   await t
+         66     setNativeDialogHandler(()  true)
+         67     click(feedPagecreateOptionsActivity)
+        68 
+      expect(Selector(search-tab-tab-Content)exists)eql(true)
+         69   await activitiesaddEndData()
+         70   await activitiesaddNthGroup(0)
+         71   await activitiespressCreateBtn()
+         72 )
+         73  deprecated replaced with cleaner test 
          at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs871)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs6857)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
+ - DEPRECATED can edit activity title 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create an activity with multiple groups
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 9204515159  Windows 10
+         101 test(can create an activity with multiple groups async
+      (t)  
+         102   await feedPageopenCreateMenu()
+         103   await t
+         104     setNativeDialogHandler(()  true)
+         105     click(feedPagecreateOptionsActivity)
+        106 
+      expect(Selector(search-tab-tab-Content)exists)eql(true)
+         107   await activitiesaddEndData()
+         108   await activitiesaddNthGroup(0)
+         109   await activitiesaddNthGroup(1)
+         110   await activitiesaddNthGroup(2)
+         111   await activitiesaddGenericTitleAndDescription()
+         at anonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs10657)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create an activity without a title or desc
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 9204515159  Windows 10
+         131 test(cannot create an activity without a title or desc
+      async (t)  
+         132   await feedPageopenCreateMenu()
+         133   await t
+         134     setNativeDialogHandler(()  true)
+         135     click(feedPagecreateOptionsActivity)
+        136 
+      expect(Selector(search-tab-tab-Content)exists)eql(true)
+         137   await activitiesaddNthGroup(0)
+         138   await activitiesaddEndData()
+         139   await t
+         140     expect(activitiescreateBtnexists)eql(true)
+         141     click(activitiescreateBtn)
+         at anonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs13657)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create an activity without any info
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 9204515159  Windows 10
+         146 test(cannot create an activity without any info async (t)
+         147   await feedPageopenCreateMenu()
+         148   await t
+         149     setNativeDialogHandler(()  true)
+         150     click(feedPagecreateOptionsActivity)
+        151 
+      expect(Selector(search-tab-tab-Content)exists)eql(true)
+         152   await t
+         153     expect(activitiescreateBtnexists)eql(true)
+         154     click(activitiescreateBtn)
+         155 
+      expect(Selector(spanerrorcreateButtonstopactive)exists)
+         156     eql(true)
+         at anonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs15157)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit title of activity
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 9204515159  Windows 10
+         175 áááá   checking if activity title exists
+         176   returns null
+         177 
+         178 async pressCreateBtn() 
+         179   await t
+        180     expect(thiscreateBtnexists)eql(true)
+         181     click(thiscreateBtn)
+         182     wait(2000)
+         183     expect(Selector(activityTitle)exists)
+         184     eql(true)
+         185   return null
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
+         at anonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
          at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs412)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
+         at ActivityPagepressCreateBtn
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit description of activity
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 9204515159  Windows 10
+         175 áááá   checking if activity title exists
+         176   returns null
+         177 
+         178 async pressCreateBtn() 
+         179   await t
+        180     expect(thiscreateBtnexists)eql(true)
+         181     click(thiscreateBtn)
+         182     wait(2000)
+         183     expect(Selector(activityTitle)exists)
+         184     eql(true)
+         185   return null
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
          at anonymous
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs1675)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
+         at __awaiter
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
+         at ActivityPagepressCreateBtn
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> can navigate to test from feed page
-   1) AssertionError this should pass expected false to be truthy
+    <t xml:space="preserve"> edit endDate of activity
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
       Browser Chrome 9204515159  Windows 10
-         552 ááááexpect(alertsgetAWICancelBtnvisible)eql(true)
-         553 
-         554 
-         555 async openCreateMenu()
-         556 await t
-        557 expect(thiscreateButtonwith( visibilityCheck true
-      )exists)ok(this should pass)
-         558 click(thiscreateButton)
-         559 
-         560 async closeAWIMenu() 
-         561 const alerts  new Alerts()
-         562 let firstConversation  new
-      Conversation(thisfirstConversation)
-         at FeedPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets55769)
+         175 áááá   checking if activity title exists
+         176   returns null
+         177 
+         178 async pressCreateBtn() 
+         179   await t
+        180     expect(thiscreateBtnexists)eql(true)
+         181     click(thiscreateBtn)
+         182     wait(2000)
+         183     expect(Selector(activityTitle)exists)
+         184     eql(true)
+         185   return null
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
          at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
          at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
-         at FeedPageopenCreateMenu
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets56616)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs4220)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs871)
-         at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs412)
-         at anonymous
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs4155)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
+         at ActivityPagepressCreateBtn
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> can open activity creation menu
+    <t xml:space="preserve"> can navigate to edit activity
    </t>
   </si>
   <si>
-    <t xml:space="preserve"> can navigate to test from feed page
+    <t xml:space="preserve"> can create an activity
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create an activity with multiple groups
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create an activity without a title or desc
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create an activity without any info
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit title of activity
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit description of activity
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit endDate of activity
    </t>
   </si>
 </sst>
@@ -432,7 +628,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,6 +639,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -450,7 +651,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B3"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -460,20 +661,68 @@
     <col min="2" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="1254" customHeight="1">
+    <row r="2" spans="1:2" ht="1364" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="979" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="1572" customHeight="1">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="1039" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="5" spans="1:2" ht="1023" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="1023" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="1357" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="1363" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="1358" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -483,7 +732,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -499,12 +748,42 @@
     </row>
     <row r="2" spans="1:1" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/matthew.fuller/results.xlsx
+++ b/matthew.fuller/results.xlsx
@@ -16,264 +16,158 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>NAMES</t>
   </si>
   <si>
     <t>ÿþ Running tests in
- - Chrome 9204515159  Windows 10
+ - Chrome 930457782  Windows 10
  activity tests
  ê</t>
   </si>
   <si>
     <t xml:space="preserve"> can open activity creation menu
  - DEPRECATED can navigate to test from feed page
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to edit activity
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create an activity
+ - DEPRECATED can edit activity title 
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create an activity with multiple groups
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> can navigate to edit activity
+    <t xml:space="preserve"> edit title of activity
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit description of activity
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create an activity without a title or desc
    1) AssertionError expected false to deeply equal true
       + expected - actual
       -false
       +true
-      Browser Chrome 9204515159  Windows 10
-         175 áááá   checking if activity title exists
-         176   returns null
-         177 
-         178 async pressCreateBtn() 
-         179   await t
-        180     expect(thiscreateBtnexists)eql(true)
-         181     click(thiscreateBtn)
-         182     wait(2000)
-         183     expect(Selector(activityTitle)exists)
-         184     eql(true)
-         185   return null
+      Browser Chrome 930457782  Windows 10
+         125   await activitiesaddEndData()
+         126   await t
+         127     expect(activitiescreateBtnexists)eql(true)
+         128     click(activitiescreateBtn)
+         129 
+      expect(Selector(spanerrorcreateButtonstopactive)exists)
+        130     eql(true)
+         131 )
+         132  description attempt to create an activity without
+      fillign any fields in 
+         133 test(cannot create an activity without any info async (t)
+         134   await feedPageopenCreateMenu()
+         135   await activitiesclickCreateActivity()
+         at anonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs1306)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create an activity without any info
+   1) The specified selector does not match any element in the DOM tree
+      á  Selector(adropdown-item)
+      á     withAttribute(data-title Activity)
+      Browser Chrome 930457782  Windows 10
+         82 áááá
+         83 
+         84 async clickCreateActivity() 
+         85   await t
+         86     setNativeDialogHandler(()  true)
+        87     click(feedPagecreateOptionsActivity)
+         88     expect(thisactivitiesSearchBatexists)eql(true)
+         89 
+         90 
+         91  description in the activities creation menu click on to
+      the calender and then select a day 
+         92 async clickOnDayInCurrentMonth(daystring) 
          at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets877)
+         at anonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
+         at __awaiter
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
+         at ActivityPageclickCreateActivity
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets6516)
+         at anonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs13520)
+         at fulfilled
+      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit endDate of activity
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 930457782  Windows 10
+         215 áááá  await t
+         216     expect(thiscreateBtnexists)eql(true)
+         217     click(thiscreateBtn)
+         218     wait(2000)
+         219     expect(Selector(divappTitle)child(span)exists)
+        220     eql(true)
+         221   return null
+         222 
+         223 
+         224 async addGenericTitleAndDescription(useObj  false obj 
+      new ActivityObj()) 
+         225   let title
+         at ActivityPageanonymous
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets2207)
          at anonymous
    (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
          at __awaiter
    (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
          at ActivityPagepressCreateBtn
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets20116)
          at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets19015)
          at fulfilled
       (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> can create an activity
+    <t xml:space="preserve"> edit startDate of activity
    1) AssertionError expected false to deeply equal true
       + expected - actual
       -false
       +true
-      Browser Chrome 9204515159  Windows 10
-         63 test(can create an activity async (t)  
-         64   await feedPageopenCreateMenu()
-         65   await t
-         66     setNativeDialogHandler(()  true)
-         67     click(feedPagecreateOptionsActivity)
-        68 
-      expect(Selector(search-tab-tab-Content)exists)eql(true)
-         69   await activitiesaddEndData()
-         70   await activitiesaddNthGroup(0)
-         71   await activitiespressCreateBtn()
-         72 )
-         73  deprecated replaced with cleaner test 
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs6857)
-         at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
- - DEPRECATED can edit activity title 
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> can create an activity with multiple groups
-   1) AssertionError expected false to deeply equal true
-      + expected - actual
-      -false
-      +true
-      Browser Chrome 9204515159  Windows 10
-         101 test(can create an activity with multiple groups async
-      (t)  
-         102   await feedPageopenCreateMenu()
-         103   await t
-         104     setNativeDialogHandler(()  true)
-         105     click(feedPagecreateOptionsActivity)
-        106 
-      expect(Selector(search-tab-tab-Content)exists)eql(true)
-         107   await activitiesaddEndData()
-         108   await activitiesaddNthGroup(0)
-         109   await activitiesaddNthGroup(1)
-         110   await activitiesaddNthGroup(2)
-         111   await activitiesaddGenericTitleAndDescription()
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs10657)
-         at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cannot create an activity without a title or desc
-   1) AssertionError expected false to deeply equal true
-      + expected - actual
-      -false
-      +true
-      Browser Chrome 9204515159  Windows 10
-         131 test(cannot create an activity without a title or desc
-      async (t)  
-         132   await feedPageopenCreateMenu()
-         133   await t
-         134     setNativeDialogHandler(()  true)
-         135     click(feedPagecreateOptionsActivity)
-        136 
-      expect(Selector(search-tab-tab-Content)exists)eql(true)
-         137   await activitiesaddNthGroup(0)
-         138   await activitiesaddEndData()
-         139   await t
-         140     expect(activitiescreateBtnexists)eql(true)
-         141     click(activitiescreateBtn)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs13657)
-         at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cannot create an activity without any info
-   1) AssertionError expected false to deeply equal true
-      + expected - actual
-      -false
-      +true
-      Browser Chrome 9204515159  Windows 10
-         146 test(cannot create an activity without any info async (t)
-         147   await feedPageopenCreateMenu()
-         148   await t
-         149     setNativeDialogHandler(()  true)
-         150     click(feedPagecreateOptionsActivity)
-        151 
-      expect(Selector(search-tab-tab-Content)exists)eql(true)
-         152   await t
-         153     expect(activitiescreateBtnexists)eql(true)
-         154     click(activitiescreateBtn)
-         155 
-      expect(Selector(spanerrorcreateButtonstopactive)exists)
-         156     eql(true)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs15157)
-         at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> edit title of activity
-   1) AssertionError expected false to deeply equal true
-      + expected - actual
-      -false
-      +true
-      Browser Chrome 9204515159  Windows 10
-         175 áááá   checking if activity title exists
-         176   returns null
-         177 
-         178 async pressCreateBtn() 
-         179   await t
-        180     expect(thiscreateBtnexists)eql(true)
-         181     click(thiscreateBtn)
-         182     wait(2000)
-         183     expect(Selector(activityTitle)exists)
-         184     eql(true)
-         185   return null
+      Browser Chrome 930457782  Windows 10
+         201 áááá  const test  await String(inntrText)toUpperCase()
+         202    consolelog(inner +test)
+         203    consolelog(inner +inntrText)
+         204    consolelog(text +text)
+         205    set both to uppercase to account for differences
+        206   await texpect(test  texttoUpperCase())eql(true)
+         207 
+         208 
+         209 
+         210   description press the create button of a activity and
+      verify its creation by
+         211    checking if activity title exists
          at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
-         at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
-         at ActivityPagepressCreateBtn
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
-         at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
+   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets20648)
          at fulfilled
       (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> edit description of activity
-   1) AssertionError expected false to deeply equal true
-      + expected - actual
-      -false
-      +true
-      Browser Chrome 9204515159  Windows 10
-         175 áááá   checking if activity title exists
-         176   returns null
-         177 
-         178 async pressCreateBtn() 
-         179   await t
-        180     expect(thiscreateBtnexists)eql(true)
-         181     click(thiscreateBtn)
-         182     wait(2000)
-         183     expect(Selector(activityTitle)exists)
-         184     eql(true)
-         185   return null
-         at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
-         at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
-         at ActivityPagepressCreateBtn
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
-         at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
-         at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> edit endDate of activity
-   1) AssertionError expected false to deeply equal true
-      + expected - actual
-      -false
-      +true
-      Browser Chrome 9204515159  Windows 10
-         175 áááá   checking if activity title exists
-         176   returns null
-         177 
-         178 async pressCreateBtn() 
-         179   await t
-        180     expect(thiscreateBtnexists)eql(true)
-         181     click(thiscreateBtn)
-         182     wait(2000)
-         183     expect(Selector(activityTitle)exists)
-         184     eql(true)
-         185   return null
-         at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets18037)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
-         at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
-         at ActivityPagepressCreateBtn
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets16916)
-         at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets8715)
-         at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+ Log in to MBEweb
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> can navigate to edit activity
-   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> can create an activity
-   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> can create an activity with multiple groups
-   </t>
   </si>
   <si>
     <t xml:space="preserve"> cannot create an activity without a title or desc
@@ -284,15 +178,11 @@
    </t>
   </si>
   <si>
-    <t xml:space="preserve"> edit title of activity
+    <t xml:space="preserve"> edit endDate of activity
    </t>
   </si>
   <si>
-    <t xml:space="preserve"> edit description of activity
-   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> edit endDate of activity
+    <t xml:space="preserve"> edit startDate of activity
    </t>
   </si>
 </sst>
@@ -628,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -644,6 +534,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -651,7 +566,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -661,68 +576,36 @@
     <col min="2" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="1364" customHeight="1">
+    <row r="2" spans="1:2" ht="1030" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="1464" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="1386" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="996" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="979" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="1039" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="1023" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="1023" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="1357" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="1363" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="1358" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -732,7 +615,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -748,42 +631,22 @@
     </row>
     <row r="2" spans="1:1" ht="20" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="20" customHeight="1">
-      <c r="A6" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="20" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="20" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="20" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/matthew.fuller/results.xlsx
+++ b/matthew.fuller/results.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13a5b47c0ecfc38d/inportant_docs/school/annark/SVVSD-Test-Cafe/matthew.fuller/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_33E2DDEAF9F22574D3F67714993E2BBB3E8F8EBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DCC98D8-85FE-4953-8CC3-47EFD4711B0C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="succsesses" sheetId="1" r:id="rId1"/>
     <sheet name="failsAndErrors" sheetId="2" r:id="rId2"/>
     <sheet name="fails" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -189,8 +195,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +236,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -276,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,9 +322,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,6 +374,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -517,44 +567,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" ht="240" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -565,18 +620,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="3" width="150.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="1030" customHeight="1">
+    <row r="2" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -584,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="1464" customHeight="1">
+    <row r="3" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -592,7 +649,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="1386" customHeight="1">
+    <row r="4" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -600,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="996" customHeight="1">
+    <row r="5" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -614,37 +671,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20" customHeight="1">
+    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="20" customHeight="1">
+    <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20" customHeight="1">
+    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="20" customHeight="1">
+    <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>

--- a/matthew.fuller/results.xlsx
+++ b/matthew.fuller/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13a5b47c0ecfc38d/inportant_docs/school/annark/SVVSD-Test-Cafe/matthew.fuller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt.fuller\Desktop\testcafe\SVVSD-Test-Cafe\matthew.fuller\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_33E2DDEAF9F22574D3F67714993E2BBB3E8F8EBB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DCC98D8-85FE-4953-8CC3-47EFD4711B0C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C534F2-E3FB-424C-9F8E-9350E64AB0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="succsesses" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,95 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="164">
   <si>
     <t>NAMES</t>
   </si>
   <si>
     <t>ÿþ Running tests in
- - Chrome 930457782  Windows 10
- activity tests
+ - Chrome 1020500561  Windows 10
+ accounts
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check slider value
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check improper email error msg displays
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check no name error msg displays
+ acList creation tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to open aclist creation menu
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create AC list
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check can cancel out of fully filled aclist creation window
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check can cancel out of aclist creation window without any info filled
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check duplicate aclist creation err visible
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check duplicate aclist creation err exists
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check duplicate aclist creation err text
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check no description err exists
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check no title err text
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create AC list and navigate to edit it
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create AC list and edit title
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create AC list and edit description
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create AC list and navigate to delete it from search
+ activity navigation tests
  ê</t>
   </si>
   <si>
     <t xml:space="preserve"> can open activity creation menu
  - DEPRECATED can navigate to test from feed page
+ activity deletion tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can delete activity from search
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can delete activity from activity page
+ activity creation tests
  ê</t>
   </si>
   <si>
@@ -51,144 +127,1308 @@
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> edit title of activity
- ê</t>
-  </si>
-  <si>
     <t xml:space="preserve"> edit description of activity
  </t>
   </si>
   <si>
+    <t xml:space="preserve"> test calendar widget month all arrows
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit startDate of activity by properly typing
+18
+12183000 512 AM
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit endDate of activity by properly typing
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit endDate of activity by clicking
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit startDate of activity by clicking
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create an activity without any info
+ ê</t>
+  </si>
+  <si>
     <t xml:space="preserve"> cannot create an activity without a title or desc
+ Feedpage API tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can post comment through api on fixed conversation id
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot post comment through api with empty string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can get first conversation through api
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can post comment through api on first conversation
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can post reply through api on fixed conversation and comment
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can get 10 conversations through api
+ WorkItem API tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create work item through api
+ conversation tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add comment
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can cancel comment
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can cancel comment then post a new one
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add reply
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can post a comment after declining the cancel confirmation check
+ group navigation tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can open group creation tab
+ group tests
+httpssvvsdcloud-staginganarkcommanagegrouptabUser
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create group without user
+httpssvvsdcloud-staginganarkcommanagegrouptabUser
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create group without desc
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verify error displays when title is missing
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verify error displays when description is missing
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verify error displays when user is missing
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verify error displays when description and title are missing
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> verify error displays when description title and user are missing
+ help popup tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the help popup can be opened from the feedpage by admin
+ - test if the help popup can be opened from the feedpage by admin and user
+ reference can open
+ login tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can successfully login
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot login without a username
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot login without a password
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot login with a non-existent user
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot login with an incorrect password
+ new user page navigation tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the viewer role
+ user tests with url hop
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the viewer role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the activity
+ author role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the activity
+ author role and viewer role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the activity
+ author role and viewer role and content author role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the Content
+ Author role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the Content
+ Author role and viewer role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the Content
+ Author role and viewer role and work item author role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the Work Item
+ Author role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the Work Item
+ Author role and viewer role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the Work Item
+ Author role and viewer role and activity author role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if the create button displays for a user that only has the Work Item
+ Author role and viewer role and activity author role and content author role
+ scuffed multi user tests
+ - can create user with the specified roles and then save
+ scuffed multi user tests
+ - can create user with activty author role
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can login with user from a file
+ search tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> content tab loads as default active tab on search page
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to serach tab
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can search text in feedpage and navigate to search tab
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the groups tab of the search page by searching an empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the groups tab of the search page by searching a non-empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the WI tab of the search page by searching an empty string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the WI tab of the search page by searching a non-empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the Users tab of the search page by searching an empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the Users tab of the search page by searching a non-empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the Templates tab of the search page by searching an empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the Templates tab of the search page by searching a
+ non-empty string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the ACLs tab of the search page by searching an empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to the ACLs tab of the search page by searching a non-empty
+ string
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ensure mbe web displays the same number of results as it claims --content
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ensure mbe web displays the same number of results as it claims --groups
+ system pref tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to system preference page from feed page
+  CONTENT
+  ACTIVIY
+  USERS
+  WORKMANAGMENT
+  PUBLISHING
+  NOTIFICATION
+  SEARCH
+  MISC
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can switch between all tabs
+ user creation tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to user page
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create and login to new user
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> users with the same loginId cannot be created
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> users with identical information except login id can be created
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can a user with an email that does not have an  symbol be created
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can a user with an email that has script tags be created  symbol be
+ created
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can a user with an email that has parenthesis be created  symbol be
+ created
+ user creation tests --that should be skiped usually
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test used to create and save users for use by other tests (should be
+ skipped unless the users need to be remade for some reason
+ WorkItems
+this is a generic title1CVjDFYhdouTGidxZpMQv3qGRKGdW4LRmhv8vlgM
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check if there is a title in the view mode of a workitem
+ - add a lot of steps and child steps
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can open WI menu fill in all feilds then cancel
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can open WI menu and close
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can open WI menu and crtl a delete and close
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if a work item can have a parenthisis in it
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if a work item can have a a pair of parenthisis at the end of it
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if a work item can have a a pair of sqaure brackets at the end of it
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if a work item can have a a pair of angle brackets at the end of it
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if a work item can have a parenthisis at the end name(hello) and be
+ found by searching name(
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test if a work item can have a parenthisis at the end of it
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can navigate to create and delete a work item
+ WI test initalisation
+test
+test
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add child step to wistep
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can switch between all WI tabs
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can rapidly switch between tabs
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can remove content from WI
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add multiple users to WI
+ - can add all avalible users to WI
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add first page of users to WI
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can remove user from WI
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add multiple content to WI
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add all avalible content to WI
+test
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot add child wi step to a wi step with information filled
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add child step to child step
+ - can add (a lot of) child step to child step
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check no description err text
+   1) - Error in fixturebeforeEach hook -
+      AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 1020500561  Windows 10
+         139 
+         140 áááá description navigate to the ac list creation page
+      from the feed page 
+         141 async navigateToCreateAcList() 
+         142   const sharedElements  new SharedElements()
+         143   await t
+        144     expect(thiscreateButtonvisible)eql(true)
+         145     click(thiscreateButton)
+         146   const acListcreationBtn  await
+      sharedElementsfindGenericDropdownSelector(aclist)
+         147   await t
+         148   expect(acListcreationBtnvisible)eql(true)
+         149   click(acListcreationBtn)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets14441)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPagenavigateToCreateAcList
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets8316)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsacList-teststs2018)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsacList-teststs558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check no title err exists
    1) AssertionError expected false to deeply equal true
       + expected - actual
       -false
       +true
-      Browser Chrome 930457782  Windows 10
-         125   await activitiesaddEndData()
-         126   await t
-         127     expect(activitiescreateBtnexists)eql(true)
-         128     click(activitiescreateBtn)
-         129 
-      expect(Selector(spanerrorcreateButtonstopactive)exists)
-        130     eql(true)
-         131 )
-         132  description attempt to create an activity without
-      fillign any fields in 
-         133 test(cannot create an activity without any info async (t)
-         134   await feedPageopenCreateMenu()
-         135   await activitiesclickCreateActivity()
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs1306)
+      Browser Chrome 1020500561  Windows 10
+         126     pressKey(enter)
+         127     expect(acListPageacListCreateBtnvisible)
+         128     eql(true)
+         129     click(acListPageacListCreateBtn)
+         130     expect(await
+      sharedElementsgenericErrfilterVisible()exists)
+        131     eql(true)
+         132   const arr  await tgetNativeDialogHistory()
+         133   consolelog(arr)
+         134 )
+         135 
+         136 test(check no title err text async ()  
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsacList-teststs1316)
          at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cannot create an activity without any info
-   1) The specified selector does not match any element in the DOM tree
-      á  Selector(adropdown-item)
-      á     withAttribute(data-title Activity)
-      Browser Chrome 930457782  Windows 10
-         82 áááá
-         83 
-         84 async clickCreateActivity() 
-         85   await t
-         86     setNativeDialogHandler(()  true)
-        87     click(feedPagecreateOptionsActivity)
-         88     expect(thisactivitiesSearchBatexists)eql(true)
-         89 
-         90 
-         91  description in the activities creation menu click on to
-      the calender and then select a day 
-         92 async clickOnDayInCurrentMonth(daystring) 
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsacList-teststs558)
+Name field is empty
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit title of activity
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         170 áááá    expect(thisgroupsTabexists)eql(true)
+         171     click(thisgroupsTab)
+         172   const btn  Selector(divsearchItemPrimary)nth(nth)
+         173   await t
+         174     expect(btnexists)eql(true)
+        175     click(btn)
+         176   await t
+         177     expect(thiscontentItemTabexists)eql(true)
+         178     click(thiscontentItemTab)
+         179   return null
+         180 
          at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets877)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
-         at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
-         at ActivityPageclickCreateActivity
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets6516)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs13520)
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets1757)
          at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerTestsactivity-teststs558)
- ê</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> edit endDate of activity
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+   2) - Error in fixtureafterEach hook -
+      AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 1020500561  Windows 10
+          91 áááá    expect(thiscogBtnvisible)eql(true)
+          92     click(thiscogBtn)
+          93    else 
+          94     await activityPagenavigateToActivity(objtitle)
+          95     await t
+         96       expect(sharedElementellipsisvisible)eql(true)
+          97       click(sharedElementellipsis)
+          98   
+          99   await t
+         100   expect(sharedElementdropDownDeletevisible)
+         101     eql(true)
+         at ActivityPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets9648)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test calendar wigit month forward arrow
+   1) - Error in fixtureafterEach hook -
+      AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 1020500561  Windows 10
+          91 áááá    expect(thiscogBtnvisible)eql(true)
+          92     click(thiscogBtn)
+          93    else 
+          94     await activityPagenavigateToActivity(objtitle)
+          95     await t
+         96       expect(sharedElementellipsisvisible)eql(true)
+          97       click(sharedElementellipsis)
+          98   
+          99   await t
+         100   expect(sharedElementdropDownDeletevisible)
+         101     eql(true)
+         at ActivityPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets9648)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+ activity tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit endDate of activity by flat-typing
    1) AssertionError expected false to deeply equal true
       + expected - actual
       -false
       +true
-      Browser Chrome 930457782  Windows 10
-         215 áááá  await t
-         216     expect(thiscreateBtnexists)eql(true)
-         217     click(thiscreateBtn)
-         218     wait(2000)
-         219     expect(Selector(divappTitle)child(span)exists)
-        220     eql(true)
-         221   return null
-         222 
-         223 
-         224 async addGenericTitleAndDescription(useObj  false obj 
+      Browser Chrome 1020500561  Windows 10
+         236 áááá  await t
+         237     expect(thiscreateBtnexists)eql(true)
+         238     click(thiscreateBtn)
+         239     wait(2000)
+         240     expect(Selector(divappTitle)child(span)exists)
+        241     eql(true)
+         242   return null
+         243 
+         244 
+         245 async addGenericTitleAndDescription(useObj  false obj 
       new ActivityObj()) 
-         225   let title
+         246   let title  
          at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets2207)
-         at anonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets2417)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets871)
          at __awaiter
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets412)
          at ActivityPagepressCreateBtn
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets20116)
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets21216)
          at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets19015)
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets21115)
          at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
  </t>
   </si>
   <si>
-    <t xml:space="preserve"> edit startDate of activity
+    <t xml:space="preserve"> edit startDate of activity by flat-typing
    1) AssertionError expected false to deeply equal true
       + expected - actual
       -false
       +true
-      Browser Chrome 930457782  Windows 10
-         201 áááá  const test  await String(inntrText)toUpperCase()
-         202    consolelog(inner +test)
-         203    consolelog(inner +inntrText)
-         204    consolelog(text +text)
-         205    set both to uppercase to account for differences
-        206   await texpect(test  texttoUpperCase())eql(true)
-         207 
-         208 
-         209 
-         210   description press the create button of a activity and
+      Browser Chrome 1020500561  Windows 10
+         222 áááá  const test  await String(inntrText)toUpperCase()
+         223    consolelog(inner +test)
+         224    consolelog(inner +inntrText)
+         225    consolelog(text +text)
+         226    set both to uppercase to account for differences
+        227   await texpect(test  texttoUpperCase())eql(true)
+         228 
+         229 
+         230 
+         231   description press the create button of a activity and
       verify its creation by
-         211    checking if activity title exists
+         232    checking if activity title exists
          at ActivityPageanonymous
-   (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets20648)
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets22748)
          at fulfilled
-      (CUsersmmfulDesktop9-9-21-anarkSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
- Log in to MBEweb
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> cannot create an activity without a title or desc
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsactivity-pagets558)
+ activity tests with url hop in fixture
+18
+12183000 512 AM
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create group without title
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 1020500561  Windows 10
+         178 áááá  const alerts  new Alerts()
+         179   const error  alertserrorPopUp
+         180   if (click) 
+         181     await
+      texpect(thiscreateBtnexists)eql(true)click(thiscreateBtn)
+         182     if (objtitle  null  objdescription 
+      objuserslength  0) 
+        183       await texpect(errorexists)eql(true)
+         184     
+         185   
+         186 
+         187 
+         188 
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets18337)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets558)
+httpssvvsdcloud-staginganarkcommanagegrouptabUser
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create group
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         185 áááá 
+         186 async openGroupMenu() 
+         187   await t
+         188     setNativeDialogHandler(()  true)
+         189     expect(thiscreateButtonexists)eql(true)
+        190     click(thiscreateButton)
+         191     expect(thiscreateOptionsGroupexists)
+         192     eql(true)
+         193     expect(thiscreateOptionsGroupvisible)
+         194     eql(true)
+         195     click(thiscreateOptionsGroup)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets1907)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPageopenGroupMenu
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets13116)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets8021)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets412)
+         at GroupPagenavigateToGroupCreationPage
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets5716)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets13915)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can cancel group creation
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         185 áááá 
+         186 async openGroupMenu() 
+         187   await t
+         188     setNativeDialogHandler(()  true)
+         189     expect(thiscreateButtonexists)eql(true)
+        190     click(thiscreateButton)
+         191     expect(thiscreateOptionsGroupexists)
+         192     eql(true)
+         193     expect(thiscreateOptionsGroupvisible)
+         194     eql(true)
+         195     click(thiscreateOptionsGroup)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets1907)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPageopenGroupMenu
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets13116)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets8021)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets412)
+         at GroupPagenavigateToGroupCreationPage
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets5716)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs6719)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs871)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can cancel group creation with all info filled
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         185 áááá 
+         186 async openGroupMenu() 
+         187   await t
+         188     setNativeDialogHandler(()  true)
+         189     expect(thiscreateButtonexists)eql(true)
+        190     click(thiscreateButton)
+         191     expect(thiscreateOptionsGroupexists)
+         192     eql(true)
+         193     expect(thiscreateOptionsGroupvisible)
+         194     eql(true)
+         195     click(thiscreateOptionsGroup)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets1907)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPageopenGroupMenu
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets13116)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets8021)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets412)
+         at GroupPagenavigateToGroupCreationPage
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets5716)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets13915)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can search for and add user
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         185 áááá 
+         186 async openGroupMenu() 
+         187   await t
+         188     setNativeDialogHandler(()  true)
+         189     expect(thiscreateButtonexists)eql(true)
+        190     click(thiscreateButton)
+         191     expect(thiscreateOptionsGroupexists)
+         192     eql(true)
+         193     expect(thiscreateOptionsGroupvisible)
+         194     eql(true)
+         195     click(thiscreateOptionsGroup)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets1907)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPageopenGroupMenu
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets13116)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets8021)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets412)
+         at GroupPagenavigateToGroupCreationPage
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets5716)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets13915)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create user and add to group
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         262 ááááasync navigateToCreateNewUser() 
+         263   const userPage  new UserPage()
+         264   await t
+         265     setNativeDialogHandler(()  true)
+         266     expect(thiscreateButtonexists)eql(true)
+        267     click(thiscreateButton)
+         268     expect(thiscreateOptionsUserexists)
+         269     eql(true)
+         270     click(thiscreateOptionsUser)
+         271     expect(userPagecheckInUserPage())
+         272     eql(true)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets2677)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPagenavigateToCreateNewUser
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets21116)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs9118)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs412)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs9049)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create user and add to group searching by email
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         262 ááááasync navigateToCreateNewUser() 
+         263   const userPage  new UserPage()
+         264   await t
+         265     setNativeDialogHandler(()  true)
+         266     expect(thiscreateButtonexists)eql(true)
+        267     click(thiscreateButton)
+         268     expect(thiscreateOptionsUserexists)
+         269     eql(true)
+         270     click(thiscreateOptionsUser)
+         271     expect(userPagecheckInUserPage())
+         272     eql(true)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets2677)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPagenavigateToCreateNewUser
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets21116)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs10218)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs412)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs10168)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create user and add to group seraching by login id
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         262 ááááasync navigateToCreateNewUser() 
+         263   const userPage  new UserPage()
+         264   await t
+         265     setNativeDialogHandler(()  true)
+         266     expect(thiscreateButtonexists)eql(true)
+        267     click(thiscreateButton)
+         268     expect(thiscreateOptionsUserexists)
+         269     eql(true)
+         270     click(thiscreateOptionsUser)
+         271     expect(userPagecheckInUserPage())
+         272     eql(true)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets2677)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPagenavigateToCreateNewUser
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets21116)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs11418)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs412)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsgroup-teststs11371)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can edit group title
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         185 áááá 
+         186 async openGroupMenu() 
+         187   await t
+         188     setNativeDialogHandler(()  true)
+         189     expect(thiscreateButtonexists)eql(true)
+        190     click(thiscreateButton)
+         191     expect(thiscreateOptionsGroupexists)
+         192     eql(true)
+         193     expect(thiscreateOptionsGroupvisible)
+         194     eql(true)
+         195     click(thiscreateOptionsGroup)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets1907)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPageopenGroupMenu
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets13116)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets8021)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets412)
+         at GroupPagenavigateToGroupCreationPage
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets5716)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets13915)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can edit group description
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         185 áááá 
+         186 async openGroupMenu() 
+         187   await t
+         188     setNativeDialogHandler(()  true)
+         189     expect(thiscreateButtonexists)eql(true)
+        190     click(thiscreateButton)
+         191     expect(thiscreateOptionsGroupexists)
+         192     eql(true)
+         193     expect(thiscreateOptionsGroupvisible)
+         194     eql(true)
+         195     click(thiscreateOptionsGroup)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets1907)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPageopenGroupMenu
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets13116)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets8021)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets412)
+         at GroupPagenavigateToGroupCreationPage
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets5716)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets13915)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can delete group
+   1) The element that matches the specified selector is not visible
+      Browser Chrome 1020500561  Windows 10
+         185 áááá 
+         186 async openGroupMenu() 
+         187   await t
+         188     setNativeDialogHandler(()  true)
+         189     expect(thiscreateButtonexists)eql(true)
+        190     click(thiscreateButton)
+         191     expect(thiscreateOptionsGroupexists)
+         192     eql(true)
+         193     expect(thiscreateOptionsGroupvisible)
+         194     eql(true)
+         195     click(thiscreateOptionsGroup)
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets1907)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets412)
+         at FeedPageopenGroupMenu
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets13116)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets8021)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets412)
+         at GroupPagenavigateToGroupCreationPage
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets5716)
+         at GroupPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets13915)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsgroup-pagets871)
+ group error msg verification tests
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create new user
+   1) The specified selector does not match any element in the DOM tree
+      á  Selector(inputformHorizontalName)
+      Browser Chrome 1020500561  Windows 10
+         73 áááá 
+         74 async fillAllFields(userObj UserObj) 
+         75   await t
+         76     expect(thisnameFieldvisible)eql(true)
+         77     click(thisnameField)
+        78     typeText(thisnameField userObjname  paste true )
+         79     expect(thisemailFieldvisible)
+         80     eql(true)
+         81     click(thisemailField)
+         82     typeText(thisemailField userObjemail)
+         83     expect(thistitleFieldvisible)
+         at UserPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsuser-pagets787)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsuser-pagets871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsuser-pagets412)
+         at UserPagefillAllFields
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsuser-pagets4816)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsuser-teststs3318)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsuser-teststs871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsuser-teststs412)
+         at anonymous
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsuser-teststs3140)
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add user to WI
+   1) AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 1020500561  Windows 10
+         654 áááá  expect(editBtnvisible)eql(true)
+         655   click(editBtn)
+         656   
+         657   await t
+         658     expect(sharedElementsappTitlevisible)
+        659     eql(true)
+         660   if (utilVerbose) consolelog(Navigated to Edit
+      workitem)
+         661 
+         662 
+         663 
+         664   description delete a specific work item
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets6597)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets558)
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can go to the next page of users through the  next button 
+   1) Cannot obtain information about the node because the specified
+      selector does not match any node in the DOM tree
+      á   Selector(fasfa-plus)
+      á     nth(0)
+      á     parent(div)
+      á    sibling(articlesearch-resultrow)
+      á     child(divsearchItemInfo)
+      á     child(ul)
+      á     child(li)
+      á     nth(0)
+      á     child(spansmalltext-muted)
+      Browser Chrome 1020500561  Windows 10
+         336         userdata object on a page found based upon the
+      allbuttons selector 
+         337       const FirstUserData 
+   thisallButtonsnth(0)parent(div)sibling(articlesearch-resultrow)child(divsearchItemInfo)
+         338         child(ul)
+         339         child(li)
+         340         nth(0)
+        341         child(spansmalltext-muted)innerText
+         342       const FirstUserName  await FirstUserData
+         343       await t
+         344         expect(thisUserPageNextBtnexists)eql(true)
+         345         click(thisUserPageNextBtn)
+         346       if (utilVerbose) 
+         at WIanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts34140)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts412)
+         at WIClickNextUserPageBtn
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts15816)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsWI-testts29325)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsWI-testts558)
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can go to the previous page of users through the  previous button 
+   1) Cannot obtain information about the node because the specified
+      selector does not match any node in the DOM tree
+      á   Selector(fasfa-plus)
+      á     nth(0)
+      á     parent(div)
+      á    sibling(articlesearch-resultrow)
+      á     child(divsearchItemInfo)
+      á     child(ul)
+      á     child(li)
+      á     nth(0)
+      á     child(spansmalltext-muted)
+      Browser Chrome 1020500561  Windows 10
+         336         userdata object on a page found based upon the
+      allbuttons selector 
+         337       const FirstUserData 
+   thisallButtonsnth(0)parent(div)sibling(articlesearch-resultrow)child(divsearchItemInfo)
+         338         child(ul)
+         339         child(li)
+         340         nth(0)
+        341         child(spansmalltext-muted)innerText
+         342       const FirstUserName  await FirstUserData
+         343       await t
+         344         expect(thisUserPageNextBtnexists)eql(true)
+         345         click(thisUserPageNextBtn)
+         346       if (utilVerbose) 
+         at WIanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts34140)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts871)
+         at __awaiter
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts412)
+         at WIClickNextUserPageBtn
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsWIts15816)
+         at anonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsWI-testts30525)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerTestsWI-testts558)
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add content to WI
+   1) - Error in fixturebeforeEach hook -
+      AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 1020500561  Windows 10
+         361 áááá    setNativeDialogHandler(()  true)
+         362     click(sharedElementsgenericCreateBtn)
+         363     wait(500)
+         364    check if app title is visible
+         365     expect(sharedElementsappTitlevisible)
+        366     eql(true)
+         367   if (utilVerbose) consolelog(-- createWi work
+      instruction created --)
+         368   workitemurl  await utilgetURL()
+         369   if (utilVerbose) consolelog(workitemurl)
+         370   await thisreturnToHome()
+         371 
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets3667)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets558)
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot add child wi step to a child wi step (with information filled) of a
+ wi step
+   1) - Error in fixturebeforeEach hook -
+      AssertionError expected false to deeply equal true
+      + expected - actual
+      -false
+      +true
+      Browser Chrome 1020500561  Windows 10
+         361 áááá    setNativeDialogHandler(()  true)
+         362     click(sharedElementsgenericCreateBtn)
+         363     wait(500)
+         364    check if app title is visible
+         365     expect(sharedElementsappTitlevisible)
+        366     eql(true)
+         367   if (utilVerbose) consolelog(-- createWi work
+      instruction created --)
+         368   workitemurl  await utilgetURL()
+         369   if (utilVerbose) consolelog(workitemurl)
+         370   await thisreturnToHome()
+         371 
+         at FeedPageanonymous
+   (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets3667)
+         at fulfilled
+      (CUsersmattfullerDesktoptestcafeSVVSD-Test-CafematthewfullerPageObjectsfeed-pagets558)
+test
+test
+test
+ ê</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> check no description err text
    </t>
   </si>
   <si>
-    <t xml:space="preserve"> cannot create an activity without any info
+    <t xml:space="preserve"> check no title err exists
    </t>
   </si>
   <si>
-    <t xml:space="preserve"> edit endDate of activity
+    <t xml:space="preserve"> edit title of activity
    </t>
   </si>
   <si>
-    <t xml:space="preserve"> edit startDate of activity
+    <t xml:space="preserve"> test calendar wigit month forward arrow
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit endDate of activity by flat-typing
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> edit startDate of activity by flat-typing
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot create group without title
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create group
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can cancel group creation
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can cancel group creation with all info filled
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can search for and add user
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create user and add to group
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create user and add to group searching by email
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> create user and add to group seraching by login id
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can edit group title
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can edit group description
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can delete group
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can create new user
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add user to WI
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can go to the next page of users through the  next button 
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can go to the previous page of users through the  previous button 
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> can add content to WI
+   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cannot add child wi step to a child wi step (with information filled) of a
+ wi step
    </t>
   </si>
 </sst>
@@ -568,33 +1808,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection sqref="A1:A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="1" max="1" width="96.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="240" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -609,9 +1849,559 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="165" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="270" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="315" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="300" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" ht="405" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" ht="240" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="255" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" ht="285" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" ht="180" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -621,11 +2411,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:B5"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -635,34 +2423,186 @@
   <sheetData>
     <row r="2" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -672,15 +2612,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -690,22 +2628,117 @@
     </row>
     <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
